--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3228075949727115</v>
+        <v>0.3356204611722832</v>
       </c>
       <c r="C2">
-        <v>0.8267062650086889</v>
+        <v>0.592858919452767</v>
       </c>
       <c r="D2">
-        <v>1.14926112655861</v>
+        <v>0.4584924415561159</v>
       </c>
       <c r="E2">
-        <v>1.072035972604749</v>
+        <v>0.6771206994001261</v>
       </c>
       <c r="F2">
-        <v>1.050292850181011</v>
+        <v>0.6051409294670009</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2730085230503584</v>
+        <v>0.1712146867552044</v>
       </c>
       <c r="C3">
-        <v>0.5944327505182431</v>
+        <v>0.4703347406954927</v>
       </c>
       <c r="D3">
-        <v>0.6856664489529708</v>
+        <v>0.3274315915576724</v>
       </c>
       <c r="E3">
-        <v>0.828049786518281</v>
+        <v>0.572216385257948</v>
       </c>
       <c r="F3">
-        <v>0.8044139377542835</v>
+        <v>0.5628049775537718</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1073812923613915</v>
+        <v>0.2052142876843926</v>
       </c>
       <c r="C4">
-        <v>0.4856159529526489</v>
+        <v>0.4129592675069453</v>
       </c>
       <c r="D4">
-        <v>0.418374132257862</v>
+        <v>0.2759880906773418</v>
       </c>
       <c r="E4">
-        <v>0.6468184693233968</v>
+        <v>0.5253456868361458</v>
       </c>
       <c r="F4">
-        <v>0.6574732710939286</v>
+        <v>0.4994665813926205</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2576619532183748</v>
+        <v>0.3686756894723587</v>
       </c>
       <c r="C5">
-        <v>0.4703439316298302</v>
+        <v>0.3990438243463547</v>
       </c>
       <c r="D5">
-        <v>0.3535200508351185</v>
+        <v>0.2123069440861257</v>
       </c>
       <c r="E5">
-        <v>0.5945755215572859</v>
+        <v>0.4607677767445611</v>
       </c>
       <c r="F5">
-        <v>0.5534188226639307</v>
+        <v>0.2860791225684026</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3604350276844117</v>
+        <v>0.341617976538504</v>
       </c>
       <c r="C6">
-        <v>0.3876405191120195</v>
+        <v>0.3737653469981676</v>
       </c>
       <c r="D6">
-        <v>0.2123430664705153</v>
+        <v>0.2000610633735307</v>
       </c>
       <c r="E6">
-        <v>0.460806973114031</v>
+        <v>0.4472818612167619</v>
       </c>
       <c r="F6">
-        <v>0.297182586892516</v>
+        <v>0.2996170762194463</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3297347777357684</v>
+        <v>0.3537113215538176</v>
       </c>
       <c r="C7">
-        <v>0.3594269622302418</v>
+        <v>0.3951185885610565</v>
       </c>
       <c r="D7">
-        <v>0.198352598209372</v>
+        <v>0.2147690549179593</v>
       </c>
       <c r="E7">
-        <v>0.4453679357670149</v>
+        <v>0.4634318233763833</v>
       </c>
       <c r="F7">
-        <v>0.3106799050039986</v>
+        <v>0.3116549409996502</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.362063388686015</v>
+        <v>0.3810204497723156</v>
       </c>
       <c r="C8">
-        <v>0.3988911419790331</v>
+        <v>0.4291397075636965</v>
       </c>
       <c r="D8">
-        <v>0.2152194845917584</v>
+        <v>0.2292934380982358</v>
       </c>
       <c r="E8">
-        <v>0.4639175407243817</v>
+        <v>0.4788459440135583</v>
       </c>
       <c r="F8">
-        <v>0.3018946605943391</v>
+        <v>0.3029254722988744</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3807292497673194</v>
+        <v>0.4264878578050817</v>
       </c>
       <c r="C9">
-        <v>0.4290581283019066</v>
+        <v>0.4469030973498441</v>
       </c>
       <c r="D9">
-        <v>0.2284558568240234</v>
+        <v>0.2370354610461564</v>
       </c>
       <c r="E9">
-        <v>0.4779705606248396</v>
+        <v>0.4868628770466653</v>
       </c>
       <c r="F9">
-        <v>0.3018146846158856</v>
+        <v>0.2462882965349502</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4249361656982711</v>
+        <v>0.3953124032861549</v>
       </c>
       <c r="C10">
-        <v>0.4475969750223547</v>
+        <v>0.4125113567458484</v>
       </c>
       <c r="D10">
-        <v>0.2365923687547577</v>
+        <v>0.2047118874619409</v>
       </c>
       <c r="E10">
-        <v>0.4864076158478172</v>
+        <v>0.4524509779655039</v>
       </c>
       <c r="F10">
-        <v>0.248241387000738</v>
+        <v>0.2319961476453755</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3961299661087644</v>
+        <v>0.3698904567253822</v>
       </c>
       <c r="C11">
-        <v>0.4123773982225899</v>
+        <v>0.3826200248740704</v>
       </c>
       <c r="D11">
-        <v>0.2050158272332239</v>
+        <v>0.1850206325475525</v>
       </c>
       <c r="E11">
-        <v>0.4527867348247118</v>
+        <v>0.4301402475327699</v>
       </c>
       <c r="F11">
-        <v>0.2311730404886565</v>
+        <v>0.2328666848057507</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T55_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_T55_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3356204611722832</v>
+        <v>0.3228075949727115</v>
       </c>
       <c r="C2">
-        <v>0.592858919452767</v>
+        <v>0.8267062650086889</v>
       </c>
       <c r="D2">
-        <v>0.4584924415561159</v>
+        <v>1.14926112655861</v>
       </c>
       <c r="E2">
-        <v>0.6771206994001261</v>
+        <v>1.072035972604749</v>
       </c>
       <c r="F2">
-        <v>0.6051409294670009</v>
+        <v>1.050292850181011</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1712146867552044</v>
+        <v>0.2730085230503584</v>
       </c>
       <c r="C3">
-        <v>0.4703347406954927</v>
+        <v>0.5944327505182431</v>
       </c>
       <c r="D3">
-        <v>0.3274315915576724</v>
+        <v>0.6856664489529708</v>
       </c>
       <c r="E3">
-        <v>0.572216385257948</v>
+        <v>0.828049786518281</v>
       </c>
       <c r="F3">
-        <v>0.5628049775537718</v>
+        <v>0.8044139377542835</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2052142876843926</v>
+        <v>0.1073812923613915</v>
       </c>
       <c r="C4">
-        <v>0.4129592675069453</v>
+        <v>0.4856159529526489</v>
       </c>
       <c r="D4">
-        <v>0.2759880906773418</v>
+        <v>0.418374132257862</v>
       </c>
       <c r="E4">
-        <v>0.5253456868361458</v>
+        <v>0.6468184693233968</v>
       </c>
       <c r="F4">
-        <v>0.4994665813926205</v>
+        <v>0.6574732710939286</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3686756894723587</v>
+        <v>0.2576619532183748</v>
       </c>
       <c r="C5">
-        <v>0.3990438243463547</v>
+        <v>0.4703439316298302</v>
       </c>
       <c r="D5">
-        <v>0.2123069440861257</v>
+        <v>0.3535200508351185</v>
       </c>
       <c r="E5">
-        <v>0.4607677767445611</v>
+        <v>0.5945755215572859</v>
       </c>
       <c r="F5">
-        <v>0.2860791225684026</v>
+        <v>0.5534188226639307</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.341617976538504</v>
+        <v>0.3604350276844117</v>
       </c>
       <c r="C6">
-        <v>0.3737653469981676</v>
+        <v>0.3876405191120195</v>
       </c>
       <c r="D6">
-        <v>0.2000610633735307</v>
+        <v>0.2123430664705153</v>
       </c>
       <c r="E6">
-        <v>0.4472818612167619</v>
+        <v>0.460806973114031</v>
       </c>
       <c r="F6">
-        <v>0.2996170762194463</v>
+        <v>0.297182586892516</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3537113215538176</v>
+        <v>0.3297347777357684</v>
       </c>
       <c r="C7">
-        <v>0.3951185885610565</v>
+        <v>0.3594269622302418</v>
       </c>
       <c r="D7">
-        <v>0.2147690549179593</v>
+        <v>0.198352598209372</v>
       </c>
       <c r="E7">
-        <v>0.4634318233763833</v>
+        <v>0.4453679357670149</v>
       </c>
       <c r="F7">
-        <v>0.3116549409996502</v>
+        <v>0.3106799050039986</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3810204497723156</v>
+        <v>0.362063388686015</v>
       </c>
       <c r="C8">
-        <v>0.4291397075636965</v>
+        <v>0.3988911419790331</v>
       </c>
       <c r="D8">
-        <v>0.2292934380982358</v>
+        <v>0.2152194845917584</v>
       </c>
       <c r="E8">
-        <v>0.4788459440135583</v>
+        <v>0.4639175407243817</v>
       </c>
       <c r="F8">
-        <v>0.3029254722988744</v>
+        <v>0.3018946605943391</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4264878578050817</v>
+        <v>0.3807292497673194</v>
       </c>
       <c r="C9">
-        <v>0.4469030973498441</v>
+        <v>0.4290581283019066</v>
       </c>
       <c r="D9">
-        <v>0.2370354610461564</v>
+        <v>0.2284558568240234</v>
       </c>
       <c r="E9">
-        <v>0.4868628770466653</v>
+        <v>0.4779705606248396</v>
       </c>
       <c r="F9">
-        <v>0.2462882965349502</v>
+        <v>0.3018146846158856</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3953124032861549</v>
+        <v>0.4249361656982711</v>
       </c>
       <c r="C10">
-        <v>0.4125113567458484</v>
+        <v>0.4475969750223547</v>
       </c>
       <c r="D10">
-        <v>0.2047118874619409</v>
+        <v>0.2365923687547577</v>
       </c>
       <c r="E10">
-        <v>0.4524509779655039</v>
+        <v>0.4864076158478172</v>
       </c>
       <c r="F10">
-        <v>0.2319961476453755</v>
+        <v>0.248241387000738</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3698904567253822</v>
+        <v>0.3961299661087644</v>
       </c>
       <c r="C11">
-        <v>0.3826200248740704</v>
+        <v>0.4123773982225899</v>
       </c>
       <c r="D11">
-        <v>0.1850206325475525</v>
+        <v>0.2050158272332239</v>
       </c>
       <c r="E11">
-        <v>0.4301402475327699</v>
+        <v>0.4527867348247118</v>
       </c>
       <c r="F11">
-        <v>0.2328666848057507</v>
+        <v>0.2311730404886565</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
